--- a/generated_docs/WR_89709840_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89709840_WeekEnding_071325.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/31/2025 08:47 AM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Bryant Murphy</t>
+          <t>BM</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>846-1</t>
+          <t>#NO MATCH-3</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89709840_WeekEnding_071325.xlsx
+++ b/generated_docs/WR_89709840_WeekEnding_071325.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I115"/>
+  <dimension ref="A2:I145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15104.62</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>243.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1071,2949 +1071,3969 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="inlineStr">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" s="10" t="inlineStr"/>
+      <c r="H26" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H26" s="16" t="n">
-        <v>2931.85</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
+      <c r="H27" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>Sunday (07/13/2025)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
+      <c r="G31" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H30" s="8" t="inlineStr">
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>Point 03</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B-S</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
+      <c r="E39" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F36" s="13" t="n">
+      <c r="F39" s="13" t="n">
         <v>471</v>
       </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>438.03</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
         <is>
           <t>DEG-10-SNA</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10" t="inlineStr"/>
-      <c r="H37" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="inlineStr">
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13" t="inlineStr"/>
-      <c r="H38" s="14" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10" t="inlineStr"/>
-      <c r="H39" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="inlineStr">
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="12" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E40" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="inlineStr"/>
-      <c r="H40" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B44" s="9" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Point 04</t>
         </is>
       </c>
-      <c r="B43" s="9" t="inlineStr">
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B44" s="12" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C44" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="12" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E44" s="12" t="inlineStr">
+      <c r="E48" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F48" s="10" t="n">
         <v>288</v>
       </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>673.92</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B45" s="9" t="inlineStr">
+      <c r="B49" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C45" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B51" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="12" t="inlineStr">
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E46" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="13" t="inlineStr"/>
-      <c r="H46" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B52" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="9" t="inlineStr">
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E47" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="10" t="inlineStr"/>
-      <c r="H47" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B48" s="12" t="inlineStr">
+      <c r="B53" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C48" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="12" t="inlineStr">
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E48" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13" t="inlineStr"/>
-      <c r="H48" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B55" s="12" t="inlineStr">
         <is>
           <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>51.05</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B50" s="12" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
         <is>
           <t>ALT-LED-FL-76-18L-SF-TN</t>
         </is>
       </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>18.8kL LED,7x6 SlipFt, cable-tenon,Flood</t>
         </is>
       </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>76.75</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B51" s="9" t="inlineStr">
+      <c r="B57" s="12" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C51" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="9" t="inlineStr">
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E51" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="10" t="inlineStr"/>
-      <c r="H51" s="11" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B52" s="12" t="inlineStr">
+      <c r="B58" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B59" s="12" t="inlineStr">
         <is>
           <t>CND-S620A</t>
         </is>
       </c>
-      <c r="C52" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="12" t="inlineStr">
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13" t="inlineStr"/>
-      <c r="H52" s="14" t="n">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B53" s="9" t="inlineStr">
+      <c r="B60" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C53" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="9" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E53" s="9" t="inlineStr">
+      <c r="E60" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F60" s="10" t="n">
         <v>544</v>
       </c>
-      <c r="G53" s="10" t="inlineStr"/>
-      <c r="H53" s="11" t="n">
-        <v>1272.96</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="inlineStr">
+      <c r="G60" s="10" t="inlineStr"/>
+      <c r="H60" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B54" s="12" t="inlineStr">
+      <c r="B61" s="12" t="inlineStr">
         <is>
           <t>DEG-2-SNA</t>
         </is>
       </c>
-      <c r="C54" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D54" s="12" t="inlineStr">
+      <c r="C61" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D61" s="12" t="inlineStr">
         <is>
           <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
-      <c r="E54" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13" t="inlineStr"/>
-      <c r="H54" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="inlineStr">
+      <c r="E61" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F61" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13" t="inlineStr"/>
+      <c r="H61" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="B62" s="9" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="10" t="inlineStr"/>
-      <c r="H55" s="11" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B56" s="12" t="inlineStr">
+      <c r="B63" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C56" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="12" t="inlineStr">
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E56" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13" t="inlineStr"/>
-      <c r="H56" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="B64" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B65" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="inlineStr">
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E57" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F57" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10" t="inlineStr"/>
-      <c r="H57" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="inlineStr">
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B58" s="12" t="inlineStr">
+      <c r="B66" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C58" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="12" t="inlineStr">
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E58" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13" t="inlineStr"/>
-      <c r="H58" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="inlineStr">
+      <c r="E66" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B59" s="9" t="inlineStr">
+      <c r="B67" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C59" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="9" t="inlineStr">
+      <c r="C67" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D67" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E59" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10" t="inlineStr"/>
-      <c r="H59" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
+      <c r="E67" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="inlineStr"/>
+      <c r="H67" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B60" s="12" t="inlineStr">
+      <c r="B68" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D68" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B69" s="12" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C60" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D60" s="12" t="inlineStr">
+      <c r="C69" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E60" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
+      <c r="E69" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F69" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="13" t="inlineStr"/>
+      <c r="H69" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B61" s="9" t="inlineStr">
+      <c r="B70" s="9" t="inlineStr">
         <is>
           <t>SVD-SG10</t>
         </is>
       </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
         <is>
           <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
-      <c r="E61" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
+      <c r="E70" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B62" s="12" t="inlineStr">
+      <c r="B71" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C71" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E71" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" s="13" t="inlineStr"/>
+      <c r="H71" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C62" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D62" s="12" t="inlineStr">
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="inlineStr">
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B63" s="9" t="inlineStr">
+      <c r="B73" s="12" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B-S</t>
         </is>
       </c>
-      <c r="C63" s="9" t="inlineStr">
+      <c r="C73" s="12" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D63" s="9" t="inlineStr">
+      <c r="D73" s="12" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
+      <c r="E73" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F73" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13" t="inlineStr"/>
+      <c r="H73" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B64" s="12" t="inlineStr">
+      <c r="B74" s="9" t="inlineStr">
         <is>
           <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
-      <c r="C64" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D64" s="12" t="inlineStr">
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
         <is>
           <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>37.03</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B65" s="9" t="inlineStr">
+      <c r="B75" s="12" t="inlineStr">
         <is>
           <t>ALT-250-SFMSG</t>
         </is>
       </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
+      <c r="C75" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D75" s="12" t="inlineStr">
         <is>
           <t>250W MultiVolt Sodium Fldlt,Slipfit,Grey</t>
         </is>
       </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10" t="inlineStr"/>
-      <c r="H65" s="11" t="n">
-        <v>54.35</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="inlineStr">
+      <c r="E75" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B66" s="12" t="inlineStr">
+      <c r="B76" s="9" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D66" s="12" t="inlineStr">
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E66" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="inlineStr"/>
-      <c r="H66" s="14" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B67" s="9" t="inlineStr">
+      <c r="B77" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C77" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D77" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="inlineStr">
         <is>
           <t>CND-S2</t>
         </is>
       </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
+      <c r="C78" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D78" s="9" t="inlineStr">
         <is>
           <t>CND,Stirrup #2</t>
         </is>
       </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B68" s="12" t="inlineStr">
+      <c r="B79" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C68" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D68" s="12" t="inlineStr">
+      <c r="C79" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E68" s="12" t="inlineStr">
+      <c r="E79" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F68" s="13" t="n">
+      <c r="F79" s="13" t="n">
         <v>442</v>
       </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>411.06</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
+      <c r="G79" s="13" t="inlineStr"/>
+      <c r="H79" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B69" s="9" t="inlineStr">
+      <c r="B80" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>190.3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B70" s="12" t="inlineStr">
+      <c r="B81" s="12" t="inlineStr">
         <is>
           <t>DEG-2-SNA</t>
         </is>
       </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
+      <c r="C81" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D81" s="12" t="inlineStr">
         <is>
           <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
+      <c r="E81" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13" t="inlineStr"/>
+      <c r="H81" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B71" s="9" t="inlineStr">
+      <c r="B82" s="9" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
+      <c r="C82" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="inlineStr">
+      <c r="E82" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="10" t="inlineStr"/>
+      <c r="H82" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B72" s="12" t="inlineStr">
+      <c r="B83" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C83" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D83" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E83" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G83" s="13" t="inlineStr"/>
+      <c r="H83" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
+      <c r="C84" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D84" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
+      <c r="E84" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="inlineStr"/>
+      <c r="H84" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B73" s="9" t="inlineStr">
+      <c r="B85" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
+      <c r="C85" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D85" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
+      <c r="E85" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="13" t="inlineStr"/>
+      <c r="H85" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B74" s="12" t="inlineStr">
+      <c r="B86" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D86" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E86" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" s="10" t="inlineStr"/>
+      <c r="H86" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B87" s="12" t="inlineStr">
         <is>
           <t>POL-40-5</t>
         </is>
       </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
+      <c r="C87" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D87" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 5</t>
         </is>
       </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="inlineStr">
+      <c r="E87" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="13" t="inlineStr"/>
+      <c r="H87" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B75" s="9" t="inlineStr">
+      <c r="B88" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D88" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="inlineStr">
+      <c r="E88" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="10" t="inlineStr"/>
+      <c r="H88" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B76" s="12" t="inlineStr">
+      <c r="B89" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C89" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D89" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E89" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="13" t="inlineStr"/>
+      <c r="H89" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B90" s="9" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
+      <c r="C90" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D90" s="9" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="inlineStr">
+      <c r="E90" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="10" t="inlineStr"/>
+      <c r="H90" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B77" s="9" t="inlineStr">
+      <c r="B91" s="12" t="inlineStr">
         <is>
           <t>SVD-SG10</t>
         </is>
       </c>
-      <c r="C77" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="9" t="inlineStr">
+      <c r="C91" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="12" t="inlineStr">
         <is>
           <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
-      <c r="E77" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="10" t="inlineStr"/>
-      <c r="H77" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="12" t="inlineStr">
+      <c r="E91" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13" t="inlineStr"/>
+      <c r="H91" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B78" s="12" t="inlineStr">
+      <c r="B92" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D92" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E92" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" s="10" t="inlineStr"/>
+      <c r="H92" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="12" t="inlineStr">
+        <is>
+          <t>Point 08</t>
+        </is>
+      </c>
+      <c r="B93" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C78" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D78" s="12" t="inlineStr">
+      <c r="C93" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D93" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E78" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="13" t="inlineStr"/>
-      <c r="H78" s="14" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="inlineStr">
+      <c r="E93" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="13" t="inlineStr"/>
+      <c r="H93" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B79" s="9" t="inlineStr">
+      <c r="B94" s="9" t="inlineStr">
         <is>
           <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
-      <c r="C79" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="inlineStr">
+      <c r="C94" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D94" s="9" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
-      <c r="E79" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="10" t="inlineStr"/>
-      <c r="H79" s="11" t="n">
-        <v>217.53</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="12" t="inlineStr">
+      <c r="E94" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" s="10" t="inlineStr"/>
+      <c r="H94" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B80" s="12" t="inlineStr">
+      <c r="B95" s="12" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C80" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="12" t="inlineStr">
+      <c r="C95" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="12" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E80" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="13" t="inlineStr"/>
-      <c r="H80" s="14" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="9" t="inlineStr">
+      <c r="E95" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="13" t="inlineStr"/>
+      <c r="H95" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B81" s="9" t="inlineStr">
+      <c r="B96" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C96" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E96" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="10" t="inlineStr"/>
+      <c r="H96" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
         <is>
           <t>CND-S620A</t>
         </is>
       </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D81" s="9" t="inlineStr">
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup #6-2/0 AL or ACSR</t>
         </is>
       </c>
-      <c r="E81" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="10" t="inlineStr"/>
-      <c r="H81" s="11" t="n">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="12" t="inlineStr">
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B82" s="12" t="inlineStr">
+      <c r="B98" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C82" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D82" s="12" t="inlineStr">
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E82" s="12" t="inlineStr">
+      <c r="E98" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F82" s="13" t="n">
+      <c r="F98" s="10" t="n">
         <v>196</v>
       </c>
-      <c r="G82" s="13" t="inlineStr"/>
-      <c r="H82" s="14" t="n">
-        <v>458.64</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="9" t="inlineStr">
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B83" s="9" t="inlineStr">
+      <c r="B99" s="12" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C83" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D83" s="9" t="inlineStr">
+      <c r="C99" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="12" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E83" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="10" t="inlineStr"/>
-      <c r="H83" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="12" t="inlineStr">
+      <c r="E99" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="13" t="inlineStr"/>
+      <c r="H99" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B84" s="12" t="inlineStr">
+      <c r="B100" s="9" t="inlineStr">
         <is>
           <t>DEG-10-SNA</t>
         </is>
       </c>
-      <c r="C84" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D84" s="12" t="inlineStr">
+      <c r="C100" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="9" t="inlineStr">
         <is>
           <t>DEG,1/0,Secondary Neutral Al</t>
         </is>
       </c>
-      <c r="E84" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="13" t="n">
+      <c r="E100" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="13" t="inlineStr"/>
-      <c r="H84" s="14" t="n">
-        <v>572.5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="9" t="inlineStr">
+      <c r="G100" s="10" t="inlineStr"/>
+      <c r="H100" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B85" s="9" t="inlineStr">
+      <c r="B101" s="12" t="inlineStr">
         <is>
           <t>DEG-10-SNI-C</t>
         </is>
       </c>
-      <c r="C85" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D85" s="9" t="inlineStr">
+      <c r="C101" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D101" s="12" t="inlineStr">
         <is>
           <t>DEG,1/0,Sec Neut for insul alum,Corr</t>
         </is>
       </c>
-      <c r="E85" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F85" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="10" t="inlineStr"/>
-      <c r="H85" s="11" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="12" t="inlineStr">
+      <c r="E101" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="13" t="inlineStr"/>
+      <c r="H101" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B86" s="12" t="inlineStr">
+      <c r="B102" s="9" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C86" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D86" s="12" t="inlineStr">
+      <c r="C102" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D102" s="9" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E86" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F86" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="13" t="inlineStr"/>
-      <c r="H86" s="14" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="9" t="inlineStr">
+      <c r="E102" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="10" t="inlineStr"/>
+      <c r="H102" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B87" s="9" t="inlineStr">
+      <c r="B103" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C87" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D87" s="9" t="inlineStr">
+      <c r="C103" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D103" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E87" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F87" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="10" t="inlineStr"/>
-      <c r="H87" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="12" t="inlineStr">
+      <c r="E103" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="13" t="inlineStr"/>
+      <c r="H103" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B88" s="12" t="inlineStr">
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D104" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" s="10" t="inlineStr"/>
+      <c r="H104" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B105" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C105" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D105" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E105" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="13" t="inlineStr"/>
+      <c r="H105" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-42W-I-C</t>
+        </is>
+      </c>
+      <c r="C106" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D106" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
+        </is>
+      </c>
+      <c r="E106" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" s="10" t="inlineStr"/>
+      <c r="H106" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B107" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
-      <c r="C88" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D88" s="12" t="inlineStr">
+      <c r="C107" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D107" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E88" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="13" t="inlineStr"/>
-      <c r="H88" s="14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="9" t="inlineStr">
+      <c r="E107" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="13" t="inlineStr"/>
+      <c r="H107" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B89" s="9" t="inlineStr">
+      <c r="B108" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
-      <c r="C89" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D89" s="9" t="inlineStr">
+      <c r="C108" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D108" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E89" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="10" t="inlineStr"/>
-      <c r="H89" s="11" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="12" t="inlineStr">
+      <c r="E108" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" s="10" t="inlineStr"/>
+      <c r="H108" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B90" s="12" t="inlineStr">
+      <c r="B109" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C109" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D109" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E109" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F109" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G109" s="13" t="inlineStr"/>
+      <c r="H109" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B110" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D110" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E110" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="10" t="inlineStr"/>
+      <c r="H110" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B111" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C111" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E111" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="13" t="inlineStr"/>
+      <c r="H111" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C90" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D90" s="12" t="inlineStr">
+      <c r="C112" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E90" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F90" s="13" t="n">
+      <c r="E112" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G90" s="13" t="inlineStr"/>
-      <c r="H90" s="14" t="n">
-        <v>165.54</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="9" t="inlineStr">
+      <c r="G112" s="10" t="inlineStr"/>
+      <c r="H112" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B91" s="9" t="inlineStr">
+      <c r="B113" s="12" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C91" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D91" s="9" t="inlineStr">
+      <c r="C113" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="12" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E91" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="10" t="inlineStr"/>
-      <c r="H91" s="11" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="12" t="inlineStr">
+      <c r="E113" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="13" t="inlineStr"/>
+      <c r="H113" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B92" s="12" t="inlineStr">
+      <c r="B114" s="9" t="inlineStr">
         <is>
           <t>ANC-DHM-8-84-T1-C</t>
         </is>
       </c>
-      <c r="C92" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D92" s="12" t="inlineStr">
+      <c r="C114" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D114" s="9" t="inlineStr">
         <is>
           <t>ANC,Dbl Hlx Mach,8in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
-      <c r="E92" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="13" t="inlineStr"/>
-      <c r="H92" s="14" t="n">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="9" t="inlineStr">
+      <c r="E114" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="10" t="inlineStr"/>
+      <c r="H114" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B93" s="9" t="inlineStr">
+      <c r="B115" s="12" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C93" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D93" s="9" t="inlineStr">
+      <c r="C115" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D115" s="12" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E93" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="10" t="inlineStr"/>
-      <c r="H93" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="12" t="inlineStr">
+      <c r="E115" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13" t="inlineStr"/>
+      <c r="H115" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B94" s="12" t="inlineStr">
+      <c r="B116" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G116" s="10" t="inlineStr"/>
+      <c r="H116" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B117" s="12" t="inlineStr">
         <is>
           <t>CND-S2</t>
         </is>
       </c>
-      <c r="C94" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D94" s="12" t="inlineStr">
+      <c r="C117" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D117" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup #2</t>
         </is>
       </c>
-      <c r="E94" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="13" t="inlineStr"/>
-      <c r="H94" s="14" t="n">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
+      <c r="E117" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="13" t="inlineStr"/>
+      <c r="H117" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B95" s="9" t="inlineStr">
+      <c r="B118" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C95" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D95" s="9" t="inlineStr">
+      <c r="C118" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D118" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E95" s="9" t="inlineStr">
+      <c r="E118" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F95" s="10" t="n">
+      <c r="F118" s="10" t="n">
         <v>408</v>
       </c>
-      <c r="G95" s="10" t="inlineStr"/>
-      <c r="H95" s="11" t="n">
-        <v>379.44</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="12" t="inlineStr">
+      <c r="G118" s="10" t="inlineStr"/>
+      <c r="H118" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B96" s="12" t="inlineStr">
+      <c r="B119" s="12" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C96" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D96" s="12" t="inlineStr">
+      <c r="C119" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D119" s="12" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E96" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="13" t="inlineStr"/>
-      <c r="H96" s="14" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="9" t="inlineStr">
+      <c r="E119" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="13" t="inlineStr"/>
+      <c r="H119" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B97" s="9" t="inlineStr">
+      <c r="B120" s="9" t="inlineStr">
         <is>
           <t>DEG-10-SNI-C</t>
         </is>
       </c>
-      <c r="C97" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D97" s="9" t="inlineStr">
+      <c r="C120" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D120" s="9" t="inlineStr">
         <is>
           <t>DEG,1/0,Sec Neut for insul alum,Corr</t>
         </is>
       </c>
-      <c r="E97" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="10" t="n">
+      <c r="E120" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G97" s="10" t="inlineStr"/>
-      <c r="H97" s="11" t="n">
-        <v>285.45</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="12" t="inlineStr">
+      <c r="G120" s="10" t="inlineStr"/>
+      <c r="H120" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B98" s="12" t="inlineStr">
+      <c r="B121" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C98" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D98" s="12" t="inlineStr">
+      <c r="C121" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D121" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E98" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="13" t="inlineStr"/>
-      <c r="H98" s="14" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="inlineStr">
+      <c r="E121" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" s="13" t="inlineStr"/>
+      <c r="H121" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B99" s="9" t="inlineStr">
+      <c r="B122" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D122" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E122" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="10" t="inlineStr"/>
+      <c r="H122" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B123" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D99" s="9" t="inlineStr">
+      <c r="C123" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D123" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E99" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" s="10" t="inlineStr"/>
-      <c r="H99" s="11" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="12" t="inlineStr">
+      <c r="E123" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="13" t="inlineStr"/>
+      <c r="H123" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B100" s="12" t="inlineStr">
+      <c r="B124" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP-C</t>
         </is>
       </c>
-      <c r="C100" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D100" s="12" t="inlineStr">
+      <c r="C124" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E100" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F100" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G100" s="13" t="inlineStr"/>
-      <c r="H100" s="14" t="n">
-        <v>35.58</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="9" t="inlineStr">
+      <c r="E124" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" s="10" t="inlineStr"/>
+      <c r="H124" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B101" s="9" t="inlineStr">
+      <c r="B125" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C125" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D125" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E125" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F125" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G125" s="13" t="inlineStr"/>
+      <c r="H125" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C126" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D126" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E126" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G126" s="10" t="inlineStr"/>
+      <c r="H126" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 24</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C101" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D101" s="9" t="inlineStr">
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E101" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="10" t="inlineStr"/>
-      <c r="H101" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="12" t="inlineStr">
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B102" s="12" t="inlineStr">
+      <c r="B129" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C102" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D102" s="12" t="inlineStr">
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E102" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F102" s="13" t="n">
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G102" s="13" t="inlineStr"/>
-      <c r="H102" s="14" t="n">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="9" t="inlineStr">
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B103" s="9" t="inlineStr">
+      <c r="B130" s="9" t="inlineStr">
         <is>
           <t>XCO-27-100-8-C</t>
         </is>
       </c>
-      <c r="C103" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D103" s="9" t="inlineStr">
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
         <is>
           <t>XCO,27kV Polymer,100 Amp,8kA, Corrosive</t>
         </is>
       </c>
-      <c r="E103" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="10" t="inlineStr"/>
-      <c r="H103" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="12" t="inlineStr">
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B104" s="12" t="inlineStr">
+      <c r="B131" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C104" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D104" s="12" t="inlineStr">
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E104" s="12" t="inlineStr">
+      <c r="E131" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F104" s="13" t="n">
+      <c r="F131" s="13" t="n">
         <v>147</v>
       </c>
-      <c r="G104" s="13" t="inlineStr"/>
-      <c r="H104" s="14" t="n">
-        <v>343.98</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="9" t="inlineStr">
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B105" s="9" t="inlineStr">
+      <c r="B132" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C105" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D105" s="9" t="inlineStr">
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E105" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="10" t="inlineStr"/>
-      <c r="H105" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="12" t="inlineStr">
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B106" s="12" t="inlineStr">
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C106" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D106" s="12" t="inlineStr">
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E106" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F106" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" s="13" t="inlineStr"/>
-      <c r="H106" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="9" t="inlineStr">
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B107" s="9" t="inlineStr">
+      <c r="B135" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D107" s="9" t="inlineStr">
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E107" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F107" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" s="10" t="inlineStr"/>
-      <c r="H107" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="12" t="inlineStr">
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B108" s="12" t="inlineStr">
+      <c r="B136" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C108" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D108" s="12" t="inlineStr">
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E108" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F108" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G108" s="13" t="inlineStr"/>
-      <c r="H108" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="9" t="inlineStr">
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B109" s="9" t="inlineStr">
+      <c r="B137" s="12" t="inlineStr">
         <is>
           <t>SAA-CL-336</t>
         </is>
       </c>
-      <c r="C109" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D109" s="9" t="inlineStr">
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
         <is>
           <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
-      <c r="E109" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F109" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" s="10" t="inlineStr"/>
-      <c r="H109" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="12" t="inlineStr">
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B110" s="12" t="inlineStr">
+      <c r="B139" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C110" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D110" s="12" t="inlineStr">
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E110" s="12" t="inlineStr">
+      <c r="E139" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F110" s="13" t="n">
+      <c r="F139" s="13" t="n">
         <v>252</v>
       </c>
-      <c r="G110" s="13" t="inlineStr"/>
-      <c r="H110" s="14" t="n">
-        <v>234.36</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="9" t="inlineStr">
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B111" s="9" t="inlineStr">
+      <c r="B140" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C111" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D111" s="9" t="inlineStr">
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E111" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F111" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" s="10" t="inlineStr"/>
-      <c r="H111" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="12" t="inlineStr">
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B112" s="12" t="inlineStr">
+      <c r="B141" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C112" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D112" s="12" t="inlineStr">
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E112" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F112" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" s="13" t="inlineStr"/>
-      <c r="H112" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B113" s="9" t="inlineStr">
+      <c r="B142" s="9" t="inlineStr">
         <is>
           <t>POL-40-4</t>
         </is>
       </c>
-      <c r="C113" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D113" s="9" t="inlineStr">
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 4</t>
         </is>
       </c>
-      <c r="E113" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F113" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G113" s="10" t="inlineStr"/>
-      <c r="H113" s="11" t="n">
-        <v>198.88</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="12" t="inlineStr">
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="12" t="inlineStr">
         <is>
           <t>Point 26</t>
         </is>
       </c>
-      <c r="B114" s="12" t="inlineStr">
+      <c r="B143" s="12" t="inlineStr">
         <is>
           <t>SAA-CL-336</t>
         </is>
       </c>
-      <c r="C114" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D114" s="12" t="inlineStr">
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
         <is>
           <t>SAA,Susp Clamp Light Angle,336</t>
         </is>
       </c>
-      <c r="E114" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F114" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G114" s="13" t="inlineStr"/>
-      <c r="H114" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="15" t="inlineStr">
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 26</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H115" s="16" t="n">
-        <v>12172.77000000001</v>
+      <c r="H145" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A30:H30"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A145:G145"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A115:G115"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
